--- a/output/xlsx/UC003 - Cancelar Solicitação de Diária--Complete-.xlsx
+++ b/output/xlsx/UC003 - Cancelar Solicitação de Diária--Complete-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>

--- a/output/xlsx/UC003 - Cancelar Solicitação de Diária--Complete-.xlsx
+++ b/output/xlsx/UC003 - Cancelar Solicitação de Diária--Complete-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela inicial de cancelar diárias</t>
+    <t>O usuário devidamente autenticado e na tela inicial de cancelar diárias.</t>
   </si>
   <si>
     <t>#</t>
@@ -95,13 +95,13 @@
     <t>Chefe Não informa o motivo do cancelamento.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe a mensagem (MSG102 - Confirmar cancelamento)</t>
+    <t>SYSTEM Exibe a mensagem (MSG102 - Confirmar cancelamento).</t>
   </si>
   <si>
     <t>Chefe Clica em confirmar.</t>
   </si>
   <si>
-    <t>SYSTEM Identifica que o usuário não informou uma justificativa para o cancelamento. Não efetiva o cancelamento e exibe mensagem de erro (MSG217 - Necessário informar uma justificativa para o cancelamento de solicitações	) para o usuário.</t>
+    <t>SYSTEM Identifica que o usuário não informou uma justificativa para o cancelamento. Não efetiva o cancelamento e exibe mensagem de erro (MSG217 - Necessário informar uma justificativa para o cancelamento de solicitações) para o usuário.</t>
   </si>
   <si>
     <t>TC2</t>
@@ -122,7 +122,7 @@
     <t>Chefe Informa o motivo do cancelamento.</t>
   </si>
   <si>
-    <t>SYSTEM Identifica que a solicitação de diária está em situação diferente de 'SOLICITADA PARA EMPENHO' ou 'SOLICITADA PARA PRESTAÇÃO DE CONTAS'.  Impede o cancelamento e exibe mensagem de erro (MSG205 - Solcitação de diária não pode ser cancelada) para o usuário.</t>
+    <t>SYSTEM Identifica que a solicitação de diária está em situação diferente de 'SOLICITADA PARA EMPENHO' ou 'SOLICITADA PARA PRESTAÇÃO DE CONTAS'.  Impede o cancelamento e exibe mensagem de erro (MSG205 - Solicitação de diária não pode ser cancelada) para o usuário.</t>
   </si>
   <si>
     <t>TC4</t>
